--- a/biology/Zoologie/Erebia_dabanensis/Erebia_dabanensis.xlsx
+++ b/biology/Zoologie/Erebia_dabanensis/Erebia_dabanensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erebia dabanensis est une espèce de papillons de la famille des Nymphalidae, de la sous-famille des Satyrinae et du genre Erebia.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Erebia dabanensis a été décrite par Nikolay Grigorievich Ershov (d) en 1871[1].
-Erebia youngi, présent en Alaska et au Canada, est très proche d’Erebia dabanensis[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Erebia dabanensis a été décrite par Nikolay Grigorievich Ershov (d) en 1871.
+Erebia youngi, présent en Alaska et au Canada, est très proche d’Erebia dabanensis.
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Erebia dabanensis dabanensis
 Erebia dabanensis olshvangi Gorbunov, 1995 ;
 Erebia dabanensis toundra Staudinger, 1887 ;
 Erebia dabanensis troubridgei Dubatolov, 1992 ;
-Erebia dabanensis sokhondoensis Belik, 2001 [1].</t>
+Erebia dabanensis sokhondoensis Belik, 2001 .</t>
         </is>
       </c>
     </row>
@@ -577,7 +593,9 @@
           <t>Nom vernaculaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Erebia dabanensis  se nomme ЭРЭБИА ДАБАНЭНЗИС en russe.
 </t>
@@ -608,9 +626,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erebia dabanensis  est un papillon marron, d'une envergure qui varie de 21 à 23 mm qui présente une ligne submarginale de petits ocelles orange cuivré pupillés de marron[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erebia dabanensis  est un papillon marron, d'une envergure qui varie de 21 à 23 mm qui présente une ligne submarginale de petits ocelles orange cuivré pupillés de marron.
 </t>
         </is>
       </c>
@@ -641,10 +661,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une génération en juin juillet[4].
-Plantes hôtes
-Ses plantes hôtes seraient des Festuca[4].
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération en juin juillet.
 </t>
         </is>
       </c>
@@ -670,16 +693,125 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes seraient des Festuca.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Erebia_dabanensis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_dabanensis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside dans le Nord de l'Asie, en Russie de l'Oural polaire à la Yakoutie et la péninsule tchouktche[1].
-Biotope
-Il habite la toundra.
-Protection
-Pas de statut de protection particulier connu.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans le Nord de l'Asie, en Russie de l'Oural polaire à la Yakoutie et la péninsule tchouktche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Erebia_dabanensis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_dabanensis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il habite la toundra.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Erebia_dabanensis</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_dabanensis</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier connu.
 </t>
         </is>
       </c>
